--- a/Notes/Outliers.xlsx
+++ b/Notes/Outliers.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\projects\outlier\Outlier\Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BE5C3E-B04E-4A1E-9FF1-2A1F2E96D09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Outliers" sheetId="1" r:id="rId4"/>
+    <sheet name="Outliers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -37,9 +46,6 @@
     <t>Outliers detection in R</t>
   </si>
   <si>
-    <t>Outlier</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -122,51 +128,92 @@
   </si>
   <si>
     <t>https://en.wikibooks.org/wiki/Data_Mining_Algorithms_In_R/Classification/Outliers</t>
+  </si>
+  <si>
+    <t>Univariate</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Multivariate</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Diagnostics in multiple linear regression</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/class/stats191/notebooks/Diagnostics_for_multiple_regression.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,76 +221,131 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="4">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -433,24 +535,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="68.14"/>
-    <col customWidth="1" min="6" max="6" width="94.0"/>
+    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="6" max="6" width="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,252 +580,279 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>36</v>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8627478D-3FA8-4FD7-849F-E79BC26AB691}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{0F014703-D059-452A-BCB3-9BE4B4FF4A4E}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{1B8B2ACB-58E5-4774-B0FD-362A86C06E1F}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{67F1C888-61C1-401F-A8C2-C2461E3090AE}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{2EA76CC1-899B-4542-A8E6-A36541DA4C7E}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{85DA3240-76A0-4854-8C16-ADA039A14CEF}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{DD9E61E2-7530-478D-9CCB-114559183EE5}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{0A723F7B-C89B-4128-B7D2-26040F56C979}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{D2E8BB64-6D6B-4C0F-BB1F-F90CAC05FE20}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{5260335B-7649-47A1-AA64-942F5F8F7505}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{F8039F11-80D2-427B-B34D-3EFBC22E6022}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{1BFCA565-7E7F-4F8A-B605-2C5060A8B3A0}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{71BB46D8-DB83-466B-B050-545E100EBE37}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{63D0EA71-5559-4161-A0DB-FCFE5DE36C80}"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>